--- a/02_programme_task/xlsx_out/25.Lamentations.xlsx
+++ b/02_programme_task/xlsx_out/25.Lamentations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B155"/>
+  <dimension ref="A1:B152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>How lonely sits the city - that was full of people! - How like a widow has she become, - she who was great among the nations! - She who was a princess among the provinces - has become a slave. -</t>
+          <t>Lamentations How Lonely Sits the City 1:1 a How lonely sits the city that was full of people! How like b a widow has she become, she who was great among the nations! She who was c a princess among the provinces has become d a slave.</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>She weeps bitterly in the night, - with tears on her cheeks; - among all her lovers - she has none to comfort her; - all her friends have dealt treacherously with her; - they have become her enemies. -</t>
+          <t>e She weeps bitterly in the night, with tears on her cheeks; f among all her lovers she has g none to comfort her; h all her friends have dealt treacherously with her; they have become her enemies.</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Judah has gone into exile because of afflictio16 n - and hard servitude; - she dwells now among the nations, - but finds no resting place; - her pursuers have all overtaken her - in the midst of her distress. -</t>
+          <t>i Judah has gone into exile because of afflictio n and hard servitude; j she dwells now among the nations, k but finds no resting place; her pursuers have all overtaken her in the midst of her distress.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The roads to Zion mourn, - for none come to the festival; - all her gates are desolate; - her priests groan; - her virgins have been afflicted, - and she herself suffers bitterly. -</t>
+          <t>The roads to Zion mourn, for none come to l the festival; m all her gates are desolate; her priests n groan; her virgins have been afflicted, and she herself suffers bitterly.</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Her foes have become the head; - her enemies prosper, - because the Lord has afflicted her - for the multitude of her transgressions; - her children have gone away, - captives before the foe. -</t>
+          <t>o Her foes have become the head; her p enemies prosper, because q the Lord has afflicted her r for the multitude of her transgressions; s her children have gone away, captives before the foe.</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>From the daughter of Zion - all her majesty has departed. - Her princes have become like deer - that find no pasture; - they fled without strength - before the pursuer. -</t>
+          <t>From the daughter of Zion all her majesty has departed. Her princes have become like deer t that find no pasture; they fled without strength before the pursuer.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jerusalem remembers - in the days of her affliction and wandering - all the precious things - that were hers from days of old. - When her people fell into the hand of the foe, - and there was none to help her, - her foes gloated over her; - they mocked at her downfall. -</t>
+          <t>Jerusalem remembers in the days of her affliction and wandering u all the precious things that were hers from v days of old. When her people fell into the hand of the foe, and there was none to help her, her foes gloated over her; they w mocked at her downfall.</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jerusalem sinned grievously; - therefore she became filthy; - all who honored her despise her, - for they have seen her nakedness; - she herself groans - and turns her face away. -</t>
+          <t>x Jerusalem sinned grievously; therefore she became filthy; all who honored her despise her, y for they have seen her nakedness; she herself z groans and turns her face away.</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Her uncleanness was in her skirts; - she took no thought of her future; - therefore her fall is terrible; - she has no comforter. - O Lord , behold my affliction, - for the enemy has triumphed! -</t>
+          <t>Her uncleanness was a in her skirts; b she took no thought of her future; therefore her fall is terrible; c she has no comforter. O Lord, behold my affliction, for the enemy has d triumphed!</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The enemy has stretched out his hands - over all her precious things; - for she has seen the nations - enter her sanctuary, - those whom you forbade - to enter your congregation. -</t>
+          <t>The enemy has stretched out his hands over all her e precious things; for she has seen f the nations enter her sanctuary, those whom you g forbade to enter your congregation.</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>All her people groan - as they search for bread; - they trade their treasures for food - to revive their strength. - Look, O Lord , and see, - for I am despised. -</t>
+          <t>All her people z groan as h they search for bread; they trade their e treasures for i food to revive their strength. Look, O Lord, and see, for I am despised.</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Is it nothing to you, all you who pass by - Look and see - if there is any sorrow like my sorrow, - which was brought upon me, - which the Lord inflicted - on the day of his fierce anger. -</t>
+          <t>Is it nothing to you, all j you who pass by? k Look and see if there is any sorrow like my sorrow, which was brought upon me, which l the Lord inflicted on m the day of his fierce anger.</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>From on high he sent fire; - into my bone16's he made it descend; - he spread a net for my feet; - he turned me back; - he has left me stunned, - faint all the day long. -</t>
+          <t>From on high he n sent fire; into my bone s he made it descend; o he spread a net for my feet; he turned me back; p he has left me stunned, faint all the day long.</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>My transgressions were boun16 d into a yoke; - by his hand they were fastened together; - they were set upon my neck; - he caused my strength to fail; - the Lord gave me into the hands - of those whom I cannot withstand. -</t>
+          <t>My transgressions were boun d into q a yoke; by his hand they were fastened together; they were set upon my neck; he caused my strength to fail; the Lord gave me into the hands of those whom I cannot withstand.</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>The Lord rejected - all my mighty men in my midst; - he summoned an assembly against me - to crush my young men; - the Lord has trodden as in a winepress - the virgin daughter of Judah. -</t>
+          <t>The Lord rejected all my mighty men in my midst; he summoned an assembly against me to crush my young men; r the Lord has trodden as in a winepress the virgin daughter of Judah.</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>For these things I weep; - my eyes flow with tears; - for a comforter is far from me, - one to revive my spirit; - my children are desolate, - for the enemy has prevailed. -</t>
+          <t>For these things s I weep; my eyes flow with tears; for t a comforter is far from me, one to u revive my spirit; my children are desolate, for the enemy has prevailed.</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Zion stretches out her hands, - but there is none to comfort her; - the Lord has commanded against Jacob - that his neighbors should be his foes; - Jerusalem has become - a filthy thing among them. -</t>
+          <t>v Zion stretches out her hands, but t there is none to comfort her; the Lord has commanded against Jacob that his neighbors should be his foes; Jerusalem has become a filthy thing among them.</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>The Lord is in the right, - for I have rebelled against his word; - but hear, all you peoples, - and see my suffering; - my young women and my young men - have gone into captivity. -</t>
+          <t>w The Lord is in the right, x for I have rebelled against his word; but hear, all you peoples, and see my suffering; y my young women and my young men have gone into captivity.</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>I lled to my lovers, - but they deceived me; - my priests and elders - perished in the city, - while they sought food - to revive their strength. -</t>
+          <t>I called to z my lovers, but they deceived me; my priests and elders perished in the city, while a they sought food to revive their strength.</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Look, O Lord , for I am in distress; - my stomach churns; - my heart is wrung within me, - because I have been very rebellious. - In the street the sword bereaves; - in the house it is like death. -</t>
+          <t>Look, O Lord, for I am in distress; b my stomach churns; my heart is wrung within me, because I have been very rebellious. c In the street the sword bereaves; in the house it is like death.</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>They hear16 d my groaning, - yet there is no one to comfort me. - All my enemies have heard of my trouble; - they are glad that you have done it. - You have brough16 t the day you announced; - now let them be as I am. -</t>
+          <t>They hear d</t>
         </is>
       </c>
     </row>
@@ -705,19 +705,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Let all their evildoing come before you, - and deal with them - as you have dealt with me - because of all my transgressions; - for my groans are many, - and my heart is faint. The Lord Has Destroyed Without Pity - 2 -</t>
+          <t>d my groaning, yet e there is no one to comfort me. All my enemies have heard of my trouble; f they are glad that you have done it. You have brough t the day you announced; f now let them be as I am.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Lamentations 2:1</t>
+          <t>Lamentations 1:22</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>How the Lord in his anger - has set the daughter of Zion under a cloud! - He has cast down from heaven to earth - the splendor of Israel; - he has not remembered his footstool - in the day of his anger. -</t>
+          <t>g Let all their evildoing come before you, and deal with them as h you have dealt with me because of all my transgressions; for d my groans are many, and i my heart is faint. The Lord Has Destroyed Without Pity 2:1 How the Lord in his anger has set the daughter of Zion j under a cloud! k He has cast down from heaven to earth the splendor of Israel; he has not remembered l his footstool in the day of his anger.</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>The Lord has swallowed up without mercy - all the habitations of Jacob; - in his wrath he has broken down - the strongholds of the daughter of Judah; - he has brought down to the ground in dishonor - the kingdom and its rulers. -</t>
+          <t>The Lord m has swallowed up n without mercy all the habitations of Jacob; in his wrath o he has broken down the strongholds of the daughter of Judah; he has brought p down to the ground p in dishonor the kingdom q and its rulers.</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>He has cut down in fierce anger - all the might of Israel; - he has withdrawn from them his right hand - in the face of the enemy; - he has burned like a flaming fire in Jacob, - consuming all around. -</t>
+          <t>He has cut down in r fierce anger all s the might of Israel; t he has withdrawn from them his right hand in the face of the enemy; u he has burned like a flaming fire in Jacob, consuming all around.</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>He has bent his bow like an enemy, - with his right hand set like a foe; - and he has killed all who were delightful in our eyes; - in the tent of the daughter of Zion, - he has poured out his fury like fire. -</t>
+          <t>v He has bent his bow like an enemy, with his right hand set w like a foe; and he has killed all who were delightful in our eyes; in the tent of the daughter of Zion, he has poured out his fury like fire.</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>The Lord has become like an enemy; - he has swallowed up Israel; - he has swallowed up all its palaces; - he has laid in ruins its strongholds, - and he has multiplied in the daughter of Judah - mourning and lamentation. -</t>
+          <t>w The Lord has become like an enemy; x he has swallowed up Israel; y he has swallowed up all its palaces; he has laid in ruins its strongholds, and he has multiplied in the daughter of Judah z mourning and lamentation.</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>He has laid waste his booth like a garden, - laid in ruins his meeting place; - the Lord has made Zion forget - festival and Sabbath, - and in his fierce indignation has spurned king and priest. -</t>
+          <t>He has laid waste his booth like a garden, laid in ruins a his meeting place; a the Lord has made Zion forget festival and b Sabbath, and in his fierce indignation has spurned king and priest.</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>The Lord has scorned his altar, - disowned his sanctuary; - he has delivered into the hand of the enemy - the walls of her palaces; - they raised a clamor in the house of the Lord - as on the day of festival. -</t>
+          <t>c The Lord has scorned his altar, d disowned his sanctuary; e he has delivered into the hand of the enemy the walls of her palaces; f they raised a clamor in the house of the Lord as on the day of festival.</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>The Lord determined to lay in ruins - the wall of the daughter of Zion; - he stretched out the measuring line; - he did not restrain his hand from destroying; - he caused rampart and wall to lament; - they languished together. -</t>
+          <t>g The Lord determined to lay in ruins h the wall of the daughter of Zion; i he stretched out the measuring line; he did not restrain his hand from destroying; j he caused rampart and wall to lament; j they languished together.</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Her gates have sunk into the ground; - he has ruined and broken her bars; - her king and princes are among the nations; - the law is no more, - and her prophets find - no vision from the Lord . -</t>
+          <t>Her gates have sunk into the ground; k he has ruined k and broken her bars; l her king and princes are among the nations; the law is no more, and m her prophets find no vision from the Lord.</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>The elders of the daughter of Zion - sit on the ground in silence; - they have thrown dust on their heads - and put on sackcloth; - the young women of Jerusalem - have bowed their heads to the ground. -</t>
+          <t>The elders of the daughter of Zion n sit on the ground o in silence; p they have thrown dust on their heads and q put on sackcloth; the young women of Jerusalem have bowed their heads to the ground.</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>My eyes are spent with weeping; - my stomach churns; - my bile is poured out to the ground - because of the destruction of the daughter of my people, - because infants and babies faint - in the streets of the city. -</t>
+          <t>r My eyes are spent with weeping; s my stomach churns; t my bile is poured out to the ground u because of the destruction of the daughter of my people, v because infants and babies w faint in the streets of the city.</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>They cry to their mothers, - Where is bread and wine - as they faint like a wounded man - in the streets of the city, - as their life is poured out - on their mothers bosom. -</t>
+          <t>They cry to their mothers, x Where is bread and wine? w as they faint like a wounded man in the streets of the city, as their life is poured out on their mothers bosom.</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>What can I say for you, to what compare you, - O ughter of Jerusalem - What can I liken to you, that I may comfort you, - O virgin daughter of Zion - For your ruin is vast as the sea; - who can heal you -</t>
+          <t>What can I say for you, y to what compare you, O daughter of Jerusalem? y What can I liken to you, that I may comfort you, O virgin daughter of Zion? z For your ruin is vast as the sea; who can heal you?</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Your prophets have seen for you - false and deceptive visions; - they have not exposed your iniquity - to restore your fortunes, - but have seen for you oracles - that are false and misleading. -</t>
+          <t>a Your prophets have seen for you false and deceptive visions; b they have not exposed your iniquity to c restore your fortunes, d but have seen for you e oracles that are false and misleading.</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>All who pass along the way - clap their hands at you; - they hiss and wag their heads - at the daughter of Jerusalem: - Is this the city that was called - the perfection of beauty, - the joy of all the earth -</t>
+          <t>All who pass along the way clap their hands at you; f they hiss and wag their heads at the daughter of Jerusalem: Is this the city that was called g the perfection of beauty, g the joy of all the earth?</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>All your enemies - rail against you; - they hiss, they gnash their teeth, - they cry: We have swallowed her! - Ah, this is the day we longed for; - now we have it; we see it! -</t>
+          <t>h All your enemies rail against you; they hiss, they gnash their teeth, they cry: We i have swallowed her! Ah, this is the day we longed for; now we have it; j we see it!</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>The Lord has done what he purposed; - he has carried out his word, - which he commanded long ago; - he has thrown down without pity; - he has made the enemy rejoice over you - and exalted the might of your foes. -</t>
+          <t>The Lord has done what he purposed; he has carried out k his word, which he commanded l long ago; m he has thrown down n without pity; o he has made the enemy rejoice over you and exalted the p might of your foes.</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Their heart cried to the Lord. - O wall of the daughter of Zion, - let tears stream down like a torrent - day and night! - Give yourself no rest, - your eyes no respite! -</t>
+          <t>Their heart cried to the Lord. O q wall of the daughter of Zion, r let tears stream down like a torrent s day and night! t Give yourself no rest, u your eyes no respite!</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Arise, cry out in the night, - at the beginning of the night watches! - Pour out your heart like water - before the presence of the Lord! - Lift your hands to him - for the lives of your children, - who faint for hunger - at the head of every street. -</t>
+          <t>Arise, v cry out in the night, at the beginning of the night watches! w Pour out your heart like water before the presence of the Lord! x Lift your hands to him for the lives of your children, y who faint for hunger at the head of every street.</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Look, O Lord , and see! - With whom have you dealt thus - Should women eat the fruit of their womb, - the children of their tender care - Should priest and prophet be killed - in the sanctuary of the Lord -</t>
+          <t>Look, O Lord, and see! z With whom have you dealt thus? a Should women eat the fruit of their womb, the children of b their tender care? Should c priest and prophet be killed in the sanctuary of the Lord?</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>In the dust of the streets - lie the young and the old; - my young women and my young men - have fallen by the sword; - you have killed them in the day of your anger, - slaughtering without pity. -</t>
+          <t>In the dust of the streets d lie the young and the old; d my young women and my young men have fallen by the sword; e you have killed them in the day of your anger, slaughtering f without pity.</t>
         </is>
       </c>
     </row>
@@ -969,1327 +969,1291 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>You summoned as if to a festival day - my terrors on every side, - and on the day of the anger of the Lord - no one escaped or survived; - those whom I held and raised - my enemy destroyed. Great Is Your Faithfulness - 3 -</t>
+          <t>You summoned as if to g a festival day h my terrors on every side, i and on the day of the anger of the Lord no one escaped or survived; j those whom I held and raised my enemy destroyed. Great Is Your Faithfulness 3:1 k I am the man who has seen affliction under the l rod of his wrath;</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Lamentations 3:1</t>
+          <t>Lamentations 3:2</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>I m the man who has seen affliction - under the rod of his wrath; -</t>
+          <t>he has driven and brought me m into darkness without any light;</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Lamentations 3:2</t>
+          <t>Lamentations 3:3</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>he has driven and brought me - into darkness without any light; -</t>
+          <t>surely against me he turns his hand again and again the whole day long.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Lamentations 3:3</t>
+          <t>Lamentations 3:4</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>surely against me he turns his hand - again and again the whole day long. -</t>
+          <t>He has made my flesh and my skin waste away; n he has broken my bones;</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Lamentations 3:4</t>
+          <t>Lamentations 3:5</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>He has made my flesh and my skin waste away; - he has broken my bones; -</t>
+          <t>o he has besieged and enveloped me with p bitterness and tribulation;</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Lamentations 3:5</t>
+          <t>Lamentations 3:6</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>he has besieged and enveloped me - with bitterness and tribulation; -</t>
+          <t>q he has made me dwell in darkness like the dead of long ago.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Lamentations 3:6</t>
+          <t>Lamentations 3:7</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>he has made me dwell in darkness - like the dead of long ago. -</t>
+          <t>r He has walled me about so that s I cannot escape; he has made my chains heavy;</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Lamentations 3:7</t>
+          <t>Lamentations 3:8</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>He has walled me about so that I nnot escape; - he has made my chains heavy; -</t>
+          <t>though t I call and cry for help, he shuts out my prayer;</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Lamentations 3:8</t>
+          <t>Lamentations 3:9</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>though I ll and cry for help, - he shuts out my prayer; -</t>
+          <t>r he has blocked my ways with blocks of stones; he has made my paths crooked.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Lamentations 3:9</t>
+          <t>Lamentations 3:10</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>he has blocked my ways with blocks of stones; - he has made my paths crooked. -</t>
+          <t>u He is a bear lying in wait for me, a lion in hiding;</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Lamentations 3:10</t>
+          <t>Lamentations 3:11</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>He is a bear lying in wait for me, - a lion in hiding; -</t>
+          <t>v he turned aside my steps and u tore me to pieces; w he has made me desolate;</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Lamentations 3:11</t>
+          <t>Lamentations 3:12</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>he turned aside my steps and tore me to pieces; - he has made me desolate; -</t>
+          <t>x he bent his bow y and set me as a target for his arrow.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Lamentations 3:12</t>
+          <t>Lamentations 3:13</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>he bent his bow and set me - as a target for his arrow. -</t>
+          <t>He drove into my kidneys z the arrows of his quiver;</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Lamentations 3:13</t>
+          <t>Lamentations 3:14</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>He drove into my kidneys - the arrows of his quiver; -</t>
+          <t>a I have become the laughingstock of all my people, b the object of their taunts all day long.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Lamentations 3:14</t>
+          <t>Lamentations 3:15</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>I have become the laughingstock of all my people, - the object of their taunts all day long. -</t>
+          <t>c He has filled me with bitterness; he has sated me with d wormwood.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Lamentations 3:15</t>
+          <t>Lamentations 3:16</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>He has filled me with bitterness; - he has sated me with wormwood. -</t>
+          <t>e He has made my teeth grind on gravel, and f made me cower in ashes;</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Lamentations 3:16</t>
+          <t>Lamentations 3:17</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>He has made my teeth grind on gravel, - and made me cower in ashes; -</t>
+          <t>my soul is bereft of peace; I have forgotten what happines s is;</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Lamentations 3:17</t>
+          <t>Lamentations 3:18</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>my soul is bereft of peace; - I have forgotten what happines16's is; -</t>
+          <t>g so I say, My endurance has perished; so has my hope from the Lord.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Lamentations 3:18</t>
+          <t>Lamentations 3:19</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>so I say, My endurance has perished; - so has my hope from the Lord . -</t>
+          <t>h Remember my affliction and my wanderings, d the wormwood and i the gall!</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Lamentations 3:19</t>
+          <t>Lamentations 3:20</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Remember my affliction and my wanderings, - the wormwood and the gall! -</t>
+          <t>My soul continually remembers it j and is bowed down within me.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Lamentations 3:20</t>
+          <t>Lamentations 3:21</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>My soul continually remembers it - and is bowed down within me. -</t>
+          <t>But this I call to mind, and k therefore I have hope:</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Lamentations 3:21</t>
+          <t>Lamentations 3:22</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>But this I call to mind, - and therefore I have hope: -</t>
+          <t>l The steadfast love of the Lord never ceases; l his mercies never come to an end;</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Lamentations 3:22</t>
+          <t>Lamentations 3:23</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>The steadfast love of the Lord never ceases; - his mercies never come to an end; -</t>
+          <t>they are new m every morning; n great is your faithfulness.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Lamentations 3:23</t>
+          <t>Lamentations 3:24</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>they are new every morning; - great is your faithfulness. -</t>
+          <t>o The Lord is my portion, says my soul, k therefore I will hope in him.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Lamentations 3:24</t>
+          <t>Lamentations 3:25</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>The Lord is my portion, says my soul, - therefore I will hope in him. -</t>
+          <t>The Lord is good to those who p wait for him, to the soul who seeks him.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Lamentations 3:25</t>
+          <t>Lamentations 3:26</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>The Lord is good to those who wait for him, - to the soul who seeks him. -</t>
+          <t>q It is good that one should wait quietly for the salvation of the Lord.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Lamentations 3:26</t>
+          <t>Lamentations 3:27</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>It is good that one should wait quietly - for the salvation of the Lord . -</t>
+          <t>r It is good for a man that he bear the yoke s in his youth.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Lamentations 3:27</t>
+          <t>Lamentations 3:28</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>It is good for a man that he bear - the yoke in his youth. -</t>
+          <t>Let him t sit alone in silence when it is laid on him;</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Lamentations 3:28</t>
+          <t>Lamentations 3:29</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Let him sit alone in silence - when it is laid on him; -</t>
+          <t>u let him put his mouth in the dus t there may yet be hope;</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Lamentations 3:29</t>
+          <t>Lamentations 3:30</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>let him put his mouth in the dus16 t16 - there may yet be hope; -</t>
+          <t>v let him give his cheek to the one who strikes, and let him be filled with insults.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Lamentations 3:30</t>
+          <t>Lamentations 3:31</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>let him give his cheek to the one who strikes, - and let him be filled with insults. -</t>
+          <t>w For the Lord will not cast off forever,</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Lamentations 3:31</t>
+          <t>Lamentations 3:32</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>For the Lord will not - cast off forever, -</t>
+          <t>for, though he x cause grief, y he will have compassion z according to the abundance of his steadfast love;</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Lamentations 3:32</t>
+          <t>Lamentations 3:33</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>for, though he cause grief, he will have compassion - according to the abundance of his steadfast love; -</t>
+          <t>a for he does not afflict from his heart or b grieve the children of men.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Lamentations 3:33</t>
+          <t>Lamentations 3:34</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>for he does not afflict from his heart - or grieve the children of men. -</t>
+          <t>To crush underfoot all c the prisoners of the earth,</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Lamentations 3:34</t>
+          <t>Lamentations 3:35</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>To crush underfoot - all the prisoners of the earth, -</t>
+          <t>d to deny a man justice in the presence of the Most High,</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Lamentations 3:35</t>
+          <t>Lamentations 3:36</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>to deny a man justice - in the presence of the Most High, -</t>
+          <t>to subvert a man in his lawsuit, d the Lord does not approve.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Lamentations 3:36</t>
+          <t>Lamentations 3:37</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>to subvert a man in his lawsuit, - the Lord does not approve. -</t>
+          <t>e Who has spoken and it came to pass, unless the Lord has commanded it?</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Lamentations 3:37</t>
+          <t>Lamentations 3:38</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Who has spoken and it came to pass, - unless the Lord has commanded it -</t>
+          <t>f Is it not from the mouth of the Most High that good and bad come?</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Lamentations 3:38</t>
+          <t>Lamentations 3:39</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Is it not from the mouth of the Most High - that good and bad come -</t>
+          <t>g Why should a living man complain, a man, about the punishment of his sins?</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Lamentations 3:39</t>
+          <t>Lamentations 3:40</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Why should a living man complain, - a man, about the punishment of his sins -</t>
+          <t>Let us test and examine our ways, h and return to the Lord!</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Lamentations 3:40</t>
+          <t>Lamentations 3:41</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Let us test and examine our ways, - and return to the Lord ! -</t>
+          <t>i Let us lift up our hearts and hands to God in heaven:</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Lamentations 3:41</t>
+          <t>Lamentations 3:42</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Let us lift up our hearts and hands - to God in heaven: -</t>
+          <t>j We have transgressed and k rebelled, and you have not forgiven.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Lamentations 3:42</t>
+          <t>Lamentations 3:43</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>We have transgressed and rebelled, - and you have not forgiven. -</t>
+          <t>You have wrapped yourself with anger and pursued us, l killing without pity;</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Lamentations 3:43</t>
+          <t>Lamentations 3:44</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>You have wrapped yourself with anger and pursued us, - killing without pity; -</t>
+          <t>m you have wrapped yourself with a cloud so that no prayer can pass through.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Lamentations 3:44</t>
+          <t>Lamentations 3:45</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>you have wrapped yourself with a cloud - so that no prayer can pass through. -</t>
+          <t>n You have made us scum and garbage among the peoples.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Lamentations 3:45</t>
+          <t>Lamentations 3:46</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>You have made us scum and garbage - among the peoples. -</t>
+          <t>o All our enemies open their mouths against us;</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Lamentations 3:46</t>
+          <t>Lamentations 3:47</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>All our enemies - open their mouths against us; -</t>
+          <t>p panic and pitfall have come upon us, devastation and q destruction;</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Lamentations 3:47</t>
+          <t>Lamentations 3:48</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>panic and pitfall have come upon us, - devastation and destruction; -</t>
+          <t>r my eyes flow with rivers of tears because of the destruction of the daughter of my people.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Lamentations 3:48</t>
+          <t>Lamentations 3:49</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>my eyes flow with rivers of tears - because of the destruction of the daughter of my people. -</t>
+          <t>r My eyes will flow without ceasing, without respite,</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Lamentations 3:49</t>
+          <t>Lamentations 3:50</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>My eyes will flow without ceasing, - without respite, -</t>
+          <t>s until the Lord from heaven looks down and sees;</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Lamentations 3:50</t>
+          <t>Lamentations 3:51</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>until the Lord from heaven - looks down and sees; -</t>
+          <t>my eyes cause me grief at the fate of all the daughters of my city.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Lamentations 3:51</t>
+          <t>Lamentations 3:52</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>my eyes cause me grief - at the fate of all the daughters of my city. -</t>
+          <t>t I have been hunted u like a bird by those who were my enemies v without cause;</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Lamentations 3:52</t>
+          <t>Lamentations 3:53</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>I have been hunted like a bird - by those who were my enemies without cause; -</t>
+          <t>w they flung me alive into the pi t x and cast stones on me;</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Lamentations 3:53</t>
+          <t>Lamentations 3:54</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>they flung me alive into the pi16 t - and cast stones on me; -</t>
+          <t>y water closed over my head; I said, z I am lost.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Lamentations 3:54</t>
+          <t>Lamentations 3:55</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>water closed over my head; - I said, I m lost. -</t>
+          <t>a I called on your name, O Lord, from the depths of the pit;</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Lamentations 3:55</t>
+          <t>Lamentations 3:56</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>I lled on your name, O Lord , - from the depths of the pit; -</t>
+          <t>b you heard my plea, Do not close your ear to my cry for help!</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Lamentations 3:56</t>
+          <t>Lamentations 3:57</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>you heard my plea, Do not close - your ear to my cry for help! -</t>
+          <t>c You came near when I called on you; you said, d Do not fear!</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Lamentations 3:57</t>
+          <t>Lamentations 3:58</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>You came near when I called on you; - you said, Do not fear! -</t>
+          <t>You have e taken up my cause, f O Lord; you have e redeemed my life.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Lamentations 3:58</t>
+          <t>Lamentations 3:59</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>You have taken up my cause, O Lord; - you have redeemed my life. -</t>
+          <t>You have seen the wrong done to me, g O Lord; judge my cause.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Lamentations 3:59</t>
+          <t>Lamentations 3:60</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>You have seen the wrong done to me, O Lord ; - judge my cause. -</t>
+          <t>You have seen all their vengeance, all h their plots against me.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Lamentations 3:60</t>
+          <t>Lamentations 3:61</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>You have seen all their vengeance, - all their plots against me. -</t>
+          <t>i You have heard their taunts, O Lord, all h their plots against me.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Lamentations 3:61</t>
+          <t>Lamentations 3:62</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>You have heard their taunts, O Lord , - all their plots against me. -</t>
+          <t>The lips and thoughts j of my assailants are against me all the day long.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Lamentations 3:62</t>
+          <t>Lamentations 3:63</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>The lips and thoughts of my assailants - are against me all the day long. -</t>
+          <t>k Behold their sitting and their rising; l I am the object of their taunts.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Lamentations 3:63</t>
+          <t>Lamentations 3:64</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Behold their sitting and their rising; - I m the object of their taunts. -</t>
+          <t>m You will repay them, O Lord, n according to the work of their hands.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Lamentations 3:64</t>
+          <t>Lamentations 3:65</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>You will repay them, 1 O Lord , - according to the work of their hands. -</t>
+          <t>You will give the m dullness of heart; your curse will b e on them.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Lamentations 3:65</t>
+          <t>Lamentations 3:66</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>You will give the m dullness of heart; - your curse will b16 e on them. -</t>
+          <t>You will pursue the m in anger and o destroy them from under p your heavens, O Lord. The Holy Stones Lie Scattered 4:1 q How the gold has grown dim, how the pure gold is changed! The holy stones lie scattered r at the head of every street.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Lamentations 3:66</t>
+          <t>Lamentations 4:2</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>You will pursue the m in anger and destroy them - from under your heavens, O Lord . The Holy Stones Lie Scattered - 4 -</t>
+          <t>The precious sons of Zion, worth their weight in s fine gold, how they are regarded as t earthen pots, the work of a potter s hands!</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Lamentations 4:1</t>
+          <t>Lamentations 4:3</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>How the gold has grown dim, - how the pure gold is changed! - The holy stones lie scattered - at the head of every street. -</t>
+          <t>Even jackals offer the breast; they nurse their young; but the daughter of my people has become cruel, like the ostriches in the wilderness.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Lamentations 4:2</t>
+          <t>Lamentations 4:4</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>The precious sons of Zion, - worth their weight in fine gold, - how they are regarded as earthen pots, - the work of a potter's hands! -</t>
+          <t>The tongue of the nursing infant u sticks to the roof of its mouth for thirst; v the children beg for food, but no one gives to them.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Lamentations 4:3</t>
+          <t>Lamentations 4:5</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Even jackals offer the breast; - they nurse their young; - but the daughter of my people has become cruel, - like the ostriches in the wilderness. -</t>
+          <t>Those who once feasted on delicacies perish in the streets; w those who were brought up in purple embrace ash heaps.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Lamentations 4:4</t>
+          <t>Lamentations 4:6</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>The tongue of the nursing infant sticks - to the roof of its mouth for thirst; - the children beg for food, - but no one gives to them. -</t>
+          <t>x For the chastisemen t of the daughter of my people has been greater than the punishmen t of Sodom, y which was overthrown in a moment, and no hands were wrung for her.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Lamentations 4:5</t>
+          <t>Lamentations 4:7</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Those who once feasted on delicacies - perish in the streets; - those who were brought up in purple - embrace ash heaps. -</t>
+          <t>Her princes were purer than snow, whiter than milk; their bodies were more ruddy than coral, the beauty of their for m was like sapphire.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Lamentations 4:6</t>
+          <t>Lamentations 4:8</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>For the chastisemen16 t of the daughter of my people has been greater - than the punishmen16 t of Sodom, - which was overthrown in a moment, - and no hands were wrung for her. -</t>
+          <t>z Now their face is blacker than soot; they are not recognized in the streets; their skin has shriveled on their bones; it has become as dry as wood.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Lamentations 4:7</t>
+          <t>Lamentations 4:9</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Her princes were purer than snow, - whiter than milk; - their bodies were more ruddy than coral, - the beauty of their for16 m was like sapphire. -</t>
+          <t>Happier were the victims of the sword than the victims of hunger, who wasted away, pierced by lack of the fruits of the field.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Lamentations 4:8</t>
+          <t>Lamentations 4:10</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Now their face is blacker than soot; - they are not recognized in the streets; - their skin has shriveled on their bones; - it has become as dry as wood. -</t>
+          <t>a The hands of b compassionate women c have boiled their own children; d they became their food during the destruction of the daughter of my people.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Lamentations 4:9</t>
+          <t>Lamentations 4:11</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Happier were the victims of the sword - than the victims of hunger, - who wasted away, pierced - by lack of the fruits of the field. -</t>
+          <t>e The Lord gave full vent to his wrath; he poured out his hot anger, and f he kindled a fire in Zion that consumed its foundations.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Lamentations 4:10</t>
+          <t>Lamentations 4:12</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>The hands of compassionate women - have boiled their own children; - they became their food - during the destruction of the daughter of my people. -</t>
+          <t>g The kings of the earth did not believe, nor any of the inhabitants of the world, that foe or enemy could enter the gates of Jerusalem.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Lamentations 4:11</t>
+          <t>Lamentations 4:13</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>The Lord gave full vent to his wrath; - he poured out his hot anger, - and he kindled a fire in Zion - that consumed its foundations. -</t>
+          <t>This was for h the sins of her prophets and h the iniquities of her priests, who shed in the midst of her the blood of the righteous.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Lamentations 4:12</t>
+          <t>Lamentations 4:14</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>The kings of the earth did not believe, - nor any of the inhabitants of the world, - that foe or enemy could enter - the gates of Jerusalem. -</t>
+          <t>i They wandered, blind, through the streets; they were so defiled with blood j that no one was able to touch their garments.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Lamentations 4:13</t>
+          <t>Lamentations 4:15</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>This was for the sins of her prophets - and the iniquities of her priests, - who shed in the midst of her - the blood of the righteous. -</t>
+          <t>Away! k Unclean! people cried at them. Away! Away! Do not touch! So they became fugitives and wanderers; people said among the nations, They shall stay with us no longer.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Lamentations 4:14</t>
+          <t>Lamentations 4:16</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>They wandered, blind, through the streets; - they were so defiled with blood - that no one was able to touch - their garments. -</t>
+          <t>l The Lord himsel f has scattered them; he will regard them no more; m no honor was shown to the priests, n no favor to the elders.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Lamentations 4:15</t>
+          <t>Lamentations 4:17</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Away! Unclean! people cried at them. - Away! Away! Do not touch! - So they became fugitives and wanderers; - people said among the nations, - They shall stay with us no longer. -</t>
+          <t>o Our eyes failed, ever watching o vainly for help; in our watching we watched for p a nation which could not save.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Lamentations 4:16</t>
+          <t>Lamentations 4:18</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>The Lord himsel16 f has scattered them; - he will regard them no more; - no honor was shown to the priests, - no favor to the elders. -</t>
+          <t>q They dogged our steps so that we could not walk in our streets; r our end drew near; our days were numbered, for our end had come.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Lamentations 4:17</t>
+          <t>Lamentations 4:19</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Our eyes failed, ever watching - vainly for help; - in our watching we watched - for a nation which could not save. -</t>
+          <t>Our pursuers were s swifter than the eagles in the heavens; they chased us on the mountains; they lay in wait for us in the wilderness.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Lamentations 4:18</t>
+          <t>Lamentations 4:20</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>They dogged our steps - so that we could not walk in our streets; - our end drew near; our days were numbered, - for our end had come. -</t>
+          <t>t The breath of our nostrils, u the Lord s anointed, was captured v in their pits, of whom we said, w Under his shadow we shall live among the nations.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Lamentations 4:19</t>
+          <t>Lamentations 4:21</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Our pursuers were swifter - than the eagles in the heavens; - they chased us on the mountains; - they lay in wait for us in the wilderness. -</t>
+          <t>x Rejoice and be glad, O daughter of Edom, you who dwell in y the land of Uz; but to you also z the cup shall pass; you shall become drunk and strip yourself bare.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Lamentations 4:20</t>
+          <t>Lamentations 4:22</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>The breath of our nostrils, the Lord's anointed, - was captured in their pits, - of whom we said, Under his shadow - we shall live among the nations. -</t>
+          <t>a The punishment of your iniquity, O daughter of Zion, is accomplished; he will keep you in exile no longer; but b your iniquity, O daughter of Edom, he will punish; he will uncover your sins. Restore Us to Yourself, O Lord 5:1 c Remember, O Lord, what has befallen us; look, and see d our disgrace!</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Lamentations 4:21</t>
+          <t>Lamentations 5:2</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Rejoice and be glad, O ughter of Edom, - you who dwell in the land of Uz; - but to you also the cup shall pass; - you shall become drunk and strip yourself bare. -</t>
+          <t>e Our inheritance has been turned over to strangers, our homes to foreigners.</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Lamentations 4:22</t>
+          <t>Lamentations 5:3</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>The punishment of your iniquity, O ughter of Zion, is accomplished; - he will keep you in exile no longer; - but your iniquity, O ughter of Edom, he will punish; - he will uncover your sins. Restore Us to Yourself, O Lord15 - 5 -</t>
+          <t>We have become orphans, fatherless; our mothers are like widows.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Lamentations 5:1</t>
+          <t>Lamentations 5:4</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Remember, O Lord , what has befallen us; - look, and see our disgrace! -</t>
+          <t>We must pay for the water we drink; the wood we get must be bought.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Lamentations 5:2</t>
+          <t>Lamentations 5:5</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Our inheritance has been turned over to strangers, - our homes to foreigners. -</t>
+          <t>f Our pursuers are at our necks; we are weary; we are given no rest.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Lamentations 5:3</t>
+          <t>Lamentations 5:6</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>We have become orphans, fatherless; - our mothers are like widows. -</t>
+          <t>We have given the hand to g Egypt, and to g Assyria, to get bread enough.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Lamentations 5:4</t>
+          <t>Lamentations 5:7</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>We must pay for the water we drink; - the wood we get must be bought. -</t>
+          <t>Our fathers sinned, and are no more; h and we bear their iniquities.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Lamentations 5:5</t>
+          <t>Lamentations 5:8</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Our pursuers are at our necks; - we are weary; we are given no rest. -</t>
+          <t>i Slaves rule over us; there is none to deliver us from their hand.</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Lamentations 5:6</t>
+          <t>Lamentations 5:9</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>We have given the hand to Egypt, and to Assyria, - to get bread enough. -</t>
+          <t>j We get our bread at the peril of our lives, because of the sword in the wilderness.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Lamentations 5:7</t>
+          <t>Lamentations 5:10</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Our fathers sinned, and are no more; - and we bear their iniquities. -</t>
+          <t>k Our skin is hot as an oven with l the burning heat of famine.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Lamentations 5:8</t>
+          <t>Lamentations 5:11</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Slaves rule over us; - there is none to deliver us from their hand. -</t>
+          <t>Women are raped in Zion, young women in the towns of Judah.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Lamentations 5:9</t>
+          <t>Lamentations 5:12</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>We get our bread at the peril of our lives, - because of the sword in the wilderness. -</t>
+          <t>m Princes are hung up by their hands; n no respect is shown to the elders.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Lamentations 5:10</t>
+          <t>Lamentations 5:13</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Our skin is hot as an oven - with the burning heat of famine. -</t>
+          <t>Young men are compelled to o grind at the mill, and boys stagger p under loads of wood.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Lamentations 5:11</t>
+          <t>Lamentations 5:14</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Women are raped in Zion, - young women in the towns of Judah. -</t>
+          <t>n The old men have left the city gate, the young men q their music.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Lamentations 5:12</t>
+          <t>Lamentations 5:15</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Princes are hung up by their hands; - no respect is shown to the elders. -</t>
+          <t>q The joy of our hearts has ceased; r our dancing has been turned to mourning.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Lamentations 5:13</t>
+          <t>Lamentations 5:16</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Young men are compelled to grind at the mill, - and boys stagger under loads of wood. -</t>
+          <t>s The crown has fallen from our head; woe to us, for we have sinned!</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Lamentations 5:14</t>
+          <t>Lamentations 5:17</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>The old men have left the city gate, - the young men their music. -</t>
+          <t>For this t our heart has become sick, for these things u our eyes have grown dim,</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Lamentations 5:15</t>
+          <t>Lamentations 5:18</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>The joy of our hearts has ceased; - our dancing has been turned to mourning. -</t>
+          <t>for Mount Zion which lies desolate; v jackals prowl over it.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Lamentations 5:16</t>
+          <t>Lamentations 5:19</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>The crown has fallen from our head; - woe to us, for we have sinned! -</t>
+          <t>w But you, O Lord, reign forever; your throne endures to all generations.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Lamentations 5:17</t>
+          <t>Lamentations 5:20</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>For this our heart has become sick, - for these things our eyes have grown dim, -</t>
+          <t>x Why do you forget us forever, why do you forsake us for so many days?</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Lamentations 5:18</t>
+          <t>Lamentations 5:21</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>for Mount Zion which lies desolate; - jackals prowl over it. -</t>
+          <t>y Restore us to yourself, O Lord, that we may be restored! Renew our days as of ol d</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Lamentations 5:19</t>
+          <t>Lamentations 5:22</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>But you, O Lord , reign forever; - your throne endures to all generations. -</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Lamentations 5:20</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Why do you forget us forever, - why do you forsake us for so many days -</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Lamentations 5:21</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Restore us to yourself, O Lord , that we may be restored! - Renew our days as of ol16 d16 -</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Lamentations 5:22</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>unless you have utterly rejected us, - and you remain exceedingly angry with us.</t>
+          <t>z unless you have utterly rejected us, and you remain exceedingly angry with us.</t>
         </is>
       </c>
     </row>
